--- a/Results.xlsx
+++ b/Results.xlsx
@@ -542,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q35"/>
+  <dimension ref="B2:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,37 +1013,88 @@
       <c r="B26" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="6"/>
+      <c r="C26" s="3">
+        <v>45.028399999999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>46.556600000000003</v>
+      </c>
+      <c r="E26" s="1">
+        <v>45.320799999999998</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.36001</v>
+      </c>
+      <c r="G26" s="3">
+        <v>43.982300000000002</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44.019300000000001</v>
+      </c>
+      <c r="I26" s="1">
+        <v>43.996400000000001</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1.2371E-2</v>
+      </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="12">
         <v>15100</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
+      <c r="C27" s="2">
+        <v>46.634599999999999</v>
+      </c>
+      <c r="D27">
+        <v>55.788600000000002</v>
+      </c>
+      <c r="E27">
+        <v>49.9422</v>
+      </c>
+      <c r="F27">
+        <v>2.7921</v>
+      </c>
+      <c r="G27" s="2">
+        <v>44.129100000000001</v>
+      </c>
+      <c r="H27" s="4">
+        <v>44.543300000000002</v>
+      </c>
+      <c r="I27" s="4">
+        <v>44.302599999999998</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.11315</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
+      <c r="C28" s="7">
+        <v>44.142699999999998</v>
+      </c>
+      <c r="D28" s="8">
+        <v>45.037599999999998</v>
+      </c>
+      <c r="E28" s="8">
+        <v>44.714300000000001</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0.27312999999999998</v>
+      </c>
+      <c r="G28" s="7">
+        <v>43.982300000000002</v>
+      </c>
+      <c r="H28" s="8">
+        <v>44.0289</v>
+      </c>
+      <c r="I28" s="8">
+        <v>43.992600000000003</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1.2536E-2</v>
+      </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
@@ -1094,41 +1145,95 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:17">
       <c r="B33" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="C33" s="3">
+        <v>68.306600000000003</v>
+      </c>
+      <c r="D33" s="1">
+        <v>68.769800000000004</v>
+      </c>
+      <c r="E33" s="1">
+        <v>68.604299999999995</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.10063999999999999</v>
+      </c>
+      <c r="G33" s="3">
+        <v>68.285300000000007</v>
+      </c>
+      <c r="H33" s="1">
+        <v>68.756500000000003</v>
+      </c>
+      <c r="I33" s="1">
+        <v>68.615499999999997</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.10908</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
       <c r="B34" s="12">
         <v>15100</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="C34" s="2">
+        <v>67.452200000000005</v>
+      </c>
+      <c r="D34">
+        <v>68.5608</v>
+      </c>
+      <c r="E34">
+        <v>68.334000000000003</v>
+      </c>
+      <c r="F34">
+        <v>0.28681000000000001</v>
+      </c>
+      <c r="G34" s="2">
+        <v>50.941000000000003</v>
+      </c>
+      <c r="H34" s="4">
+        <v>68.578199999999995</v>
+      </c>
+      <c r="I34" s="4">
+        <v>64.772900000000007</v>
+      </c>
+      <c r="J34" s="5">
+        <v>6.2686000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
       <c r="B35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="9"/>
+      <c r="C35" s="7">
+        <v>67.124899999999997</v>
+      </c>
+      <c r="D35" s="8">
+        <v>67.366200000000006</v>
+      </c>
+      <c r="E35" s="8">
+        <v>67.213700000000003</v>
+      </c>
+      <c r="F35" s="8">
+        <v>7.4606000000000006E-2</v>
+      </c>
+      <c r="G35" s="7">
+        <v>67.123599999999996</v>
+      </c>
+      <c r="H35" s="8">
+        <v>67.123900000000006</v>
+      </c>
+      <c r="I35" s="8">
+        <v>67.123800000000003</v>
+      </c>
+      <c r="J35" s="9">
+        <v>7.9386000000000002E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="Q41" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
   <si>
     <t>3,12</t>
   </si>
@@ -66,8 +66,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -212,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -234,6 +242,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -243,11 +256,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -542,37 +571,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:Q41"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:19">
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="15" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="2:17">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -599,8 +628,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="2:19">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -621,15 +650,32 @@
       <c r="H5" s="1">
         <v>34.557499999999997</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="21">
         <v>34.557499999999997</v>
       </c>
       <c r="J5" s="6">
         <v>7.1053999999999999E-15</v>
       </c>
-      <c r="Q5" s="20"/>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="N5" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="12">
         <v>15100</v>
       </c>
@@ -657,9 +703,27 @@
       <c r="J6" s="5">
         <v>5.6470000000000001E-3</v>
       </c>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="13" t="s">
+      <c r="N6" s="28">
+        <v>15100</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7">
@@ -668,7 +732,7 @@
       <c r="D7" s="8">
         <v>77.162899999999993</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="22">
         <v>43.072800000000001</v>
       </c>
       <c r="F7" s="8">
@@ -680,35 +744,53 @@
       <c r="H7" s="8">
         <v>34.557499999999997</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="22">
         <v>34.557499999999997</v>
       </c>
       <c r="J7" s="9">
         <v>1.4117E-14</v>
       </c>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="N7" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:17">
+    <row r="10" spans="2:19">
       <c r="B10" s="14"/>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="19" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -736,8 +818,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="2:19">
+      <c r="B12" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="3">
@@ -765,8 +847,8 @@
         <v>1042.4513999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="12">
+    <row r="13" spans="2:19">
+      <c r="B13" s="26">
         <v>15100</v>
       </c>
       <c r="C13">
@@ -787,15 +869,15 @@
       <c r="H13" s="4">
         <v>580.45809999999994</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="25">
         <v>428.20920000000001</v>
       </c>
       <c r="J13" s="5">
         <v>80.005300000000005</v>
       </c>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="13" t="s">
         <v>1</v>
       </c>
@@ -805,7 +887,7 @@
       <c r="D14" s="8">
         <v>3094.7927</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="22">
         <v>917.38499999999999</v>
       </c>
       <c r="F14" s="8">
@@ -824,7 +906,7 @@
         <v>209.0616</v>
       </c>
     </row>
-    <row r="16" spans="2:17">
+    <row r="16" spans="2:19">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -833,18 +915,18 @@
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="15" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="10"/>
@@ -874,7 +956,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3">
@@ -895,7 +977,7 @@
       <c r="H19" s="1">
         <v>52.522300000000001</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="21">
         <v>42.806800000000003</v>
       </c>
       <c r="J19" s="6">
@@ -941,7 +1023,7 @@
       <c r="D21" s="8">
         <v>7931.8278</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="22">
         <v>1108.5558000000001</v>
       </c>
       <c r="F21" s="8">
@@ -969,18 +1051,18 @@
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="15" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="10"/>
@@ -1010,7 +1092,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
@@ -1031,7 +1113,7 @@
       <c r="H26" s="1">
         <v>44.019300000000001</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="21">
         <v>43.996400000000001</v>
       </c>
       <c r="J26" s="6">
@@ -1039,7 +1121,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="12">
+      <c r="B27" s="26">
         <v>15100</v>
       </c>
       <c r="C27" s="2">
@@ -1060,7 +1142,7 @@
       <c r="H27" s="4">
         <v>44.543300000000002</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="25">
         <v>44.302599999999998</v>
       </c>
       <c r="J27" s="5">
@@ -1068,7 +1150,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="24" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="7">
@@ -1077,7 +1159,7 @@
       <c r="D28" s="8">
         <v>45.037599999999998</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="22">
         <v>44.714300000000001</v>
       </c>
       <c r="F28" s="8">
@@ -1089,7 +1171,7 @@
       <c r="H28" s="8">
         <v>44.0289</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="22">
         <v>43.992600000000003</v>
       </c>
       <c r="J28" s="9">
@@ -1105,18 +1187,18 @@
       <c r="B31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="15" t="s">
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="10"/>
@@ -1175,7 +1257,7 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="12">
+      <c r="B34" s="26">
         <v>15100</v>
       </c>
       <c r="C34" s="2">
@@ -1196,7 +1278,7 @@
       <c r="H34" s="4">
         <v>68.578199999999995</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="25">
         <v>64.772900000000007</v>
       </c>
       <c r="J34" s="5">
@@ -1213,7 +1295,7 @@
       <c r="D35" s="8">
         <v>67.366200000000006</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="22">
         <v>67.213700000000003</v>
       </c>
       <c r="F35" s="8">
@@ -1233,7 +1315,7 @@
       </c>
     </row>
     <row r="41" spans="2:17">
-      <c r="Q41" s="20"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1267,18 +1349,18 @@
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10"/>
@@ -1366,18 +1448,18 @@
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10"/>
@@ -1465,18 +1547,18 @@
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10"/>
@@ -1564,18 +1646,18 @@
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="14625"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="28755" windowHeight="14625" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bbf1" sheetId="1" r:id="rId1"/>
-    <sheet name="bbf2" sheetId="2" r:id="rId2"/>
-    <sheet name="bbf3" sheetId="3" r:id="rId3"/>
-    <sheet name="bbf4" sheetId="4" r:id="rId4"/>
-    <sheet name="bbf5" sheetId="5" r:id="rId5"/>
+    <sheet name="foute-tau" sheetId="1" r:id="rId1"/>
+    <sheet name="goede-tau" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="21">
   <si>
     <t>3,12</t>
   </si>
@@ -60,6 +57,27 @@
   </si>
   <si>
     <t>BBF5</t>
+  </si>
+  <si>
+    <t>(1+1)-ES</t>
+  </si>
+  <si>
+    <t>(3,12)-ES</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>tau\prime</t>
+  </si>
+  <si>
+    <t>(15,100)-ES</t>
   </si>
 </sst>
 </file>
@@ -220,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -247,15 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -277,6 +286,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -573,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -588,18 +607,18 @@
       <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" s="10"/>
@@ -629,7 +648,7 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -650,13 +669,13 @@
       <c r="H5" s="1">
         <v>34.557499999999997</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>34.557499999999997</v>
       </c>
       <c r="J5" s="6">
         <v>7.1053999999999999E-15</v>
       </c>
-      <c r="N5" s="27" t="s">
+      <c r="N5" s="24" t="s">
         <v>0</v>
       </c>
       <c r="O5">
@@ -665,7 +684,7 @@
       <c r="P5">
         <v>3</v>
       </c>
-      <c r="Q5" s="29">
+      <c r="Q5" s="26">
         <v>1</v>
       </c>
       <c r="R5">
@@ -703,7 +722,7 @@
       <c r="J6" s="5">
         <v>5.6470000000000001E-3</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="25">
         <v>15100</v>
       </c>
       <c r="O6">
@@ -723,7 +742,7 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="7">
@@ -732,7 +751,7 @@
       <c r="D7" s="8">
         <v>77.162899999999993</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="19">
         <v>43.072800000000001</v>
       </c>
       <c r="F7" s="8">
@@ -744,13 +763,13 @@
       <c r="H7" s="8">
         <v>34.557499999999997</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="19">
         <v>34.557499999999997</v>
       </c>
       <c r="J7" s="9">
         <v>1.4117E-14</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="24" t="s">
         <v>1</v>
       </c>
       <c r="O7">
@@ -776,18 +795,18 @@
     </row>
     <row r="10" spans="2:19">
       <c r="B10" s="14"/>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="16" t="s">
@@ -848,7 +867,7 @@
       </c>
     </row>
     <row r="13" spans="2:19">
-      <c r="B13" s="26">
+      <c r="B13" s="23">
         <v>15100</v>
       </c>
       <c r="C13">
@@ -869,7 +888,7 @@
       <c r="H13" s="4">
         <v>580.45809999999994</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="22">
         <v>428.20920000000001</v>
       </c>
       <c r="J13" s="5">
@@ -887,7 +906,7 @@
       <c r="D14" s="8">
         <v>3094.7927</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="19">
         <v>917.38499999999999</v>
       </c>
       <c r="F14" s="8">
@@ -915,18 +934,18 @@
       <c r="B17" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="10"/>
@@ -956,7 +975,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3">
@@ -977,7 +996,7 @@
       <c r="H19" s="1">
         <v>52.522300000000001</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="18">
         <v>42.806800000000003</v>
       </c>
       <c r="J19" s="6">
@@ -1023,7 +1042,7 @@
       <c r="D21" s="8">
         <v>7931.8278</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="19">
         <v>1108.5558000000001</v>
       </c>
       <c r="F21" s="8">
@@ -1051,18 +1070,18 @@
       <c r="B24" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="18" t="s">
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="10"/>
@@ -1092,7 +1111,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="3">
@@ -1113,7 +1132,7 @@
       <c r="H26" s="1">
         <v>44.019300000000001</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="18">
         <v>43.996400000000001</v>
       </c>
       <c r="J26" s="6">
@@ -1121,7 +1140,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="26">
+      <c r="B27" s="23">
         <v>15100</v>
       </c>
       <c r="C27" s="2">
@@ -1142,7 +1161,7 @@
       <c r="H27" s="4">
         <v>44.543300000000002</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="22">
         <v>44.302599999999998</v>
       </c>
       <c r="J27" s="5">
@@ -1150,7 +1169,7 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="7">
@@ -1159,7 +1178,7 @@
       <c r="D28" s="8">
         <v>45.037599999999998</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="19">
         <v>44.714300000000001</v>
       </c>
       <c r="F28" s="8">
@@ -1171,7 +1190,7 @@
       <c r="H28" s="8">
         <v>44.0289</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="19">
         <v>43.992600000000003</v>
       </c>
       <c r="J28" s="9">
@@ -1187,18 +1206,18 @@
       <c r="B31" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18" t="s">
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="2:10">
       <c r="B32" s="10"/>
@@ -1257,7 +1276,7 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="26">
+      <c r="B34" s="23">
         <v>15100</v>
       </c>
       <c r="C34" s="2">
@@ -1278,7 +1297,7 @@
       <c r="H34" s="4">
         <v>68.578199999999995</v>
       </c>
-      <c r="I34" s="25">
+      <c r="I34" s="22">
         <v>64.772900000000007</v>
       </c>
       <c r="J34" s="5">
@@ -1295,7 +1314,7 @@
       <c r="D35" s="8">
         <v>67.366200000000006</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <v>67.213700000000003</v>
       </c>
       <c r="F35" s="8">
@@ -1337,396 +1356,821 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="B2:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="10"/>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
+    <row r="5" spans="2:19">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12">
+      <c r="C5">
+        <v>38.03</v>
+      </c>
+      <c r="D5">
+        <v>1773.3391999999999</v>
+      </c>
+      <c r="E5">
+        <v>360.11540000000002</v>
+      </c>
+      <c r="F5">
+        <v>472.44479999999999</v>
+      </c>
+      <c r="G5">
+        <v>34.557499999999997</v>
+      </c>
+      <c r="H5">
+        <v>34.557499999999997</v>
+      </c>
+      <c r="I5" s="30">
+        <v>34.557499999999997</v>
+      </c>
+      <c r="J5">
+        <v>6.5204E-15</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="12">
         <v>15100</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
+      <c r="C6">
+        <v>3308.2519000000002</v>
+      </c>
+      <c r="D6">
+        <v>17611.293600000001</v>
+      </c>
+      <c r="E6">
+        <v>7847.6000999999997</v>
+      </c>
+      <c r="F6">
+        <v>4042.5198999999998</v>
+      </c>
+      <c r="G6">
+        <v>34.557600000000001</v>
+      </c>
+      <c r="H6">
+        <v>34.571599999999997</v>
+      </c>
+      <c r="I6">
+        <v>34.559399999999997</v>
+      </c>
+      <c r="J6">
+        <v>3.1727999999999999E-3</v>
+      </c>
+      <c r="N6" s="25">
+        <v>15100</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>34.919400000000003</v>
+      </c>
+      <c r="D7">
+        <v>113.6003</v>
+      </c>
+      <c r="E7">
+        <v>44.452500000000001</v>
+      </c>
+      <c r="F7">
+        <v>18.8063</v>
+      </c>
+      <c r="G7">
+        <v>34.557499999999997</v>
+      </c>
+      <c r="H7">
+        <v>34.557499999999997</v>
+      </c>
+      <c r="I7" s="30">
+        <v>34.557499999999997</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.1641E-14</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="14"/>
+      <c r="C10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1505.0853999999999</v>
+      </c>
+      <c r="D12">
+        <v>58971.943500000001</v>
+      </c>
+      <c r="E12">
+        <v>9119.5244000000002</v>
+      </c>
+      <c r="F12">
+        <v>13060.1288</v>
+      </c>
+      <c r="G12">
+        <v>141.17449999999999</v>
+      </c>
+      <c r="H12">
+        <v>2411.4537</v>
+      </c>
+      <c r="I12">
+        <v>816.76199999999994</v>
+      </c>
+      <c r="J12">
+        <v>524.80150000000003</v>
+      </c>
+      <c r="N12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="23">
+        <v>15100</v>
+      </c>
+      <c r="C13">
+        <v>106225.5667</v>
+      </c>
+      <c r="D13">
+        <v>276322.63679999998</v>
+      </c>
+      <c r="E13">
+        <v>201119.95189999999</v>
+      </c>
+      <c r="F13">
+        <v>38620.364600000001</v>
+      </c>
+      <c r="G13">
+        <v>276.52780000000001</v>
+      </c>
+      <c r="H13">
+        <v>795.37049999999999</v>
+      </c>
+      <c r="I13" s="30">
+        <v>437.68279999999999</v>
+      </c>
+      <c r="J13">
+        <v>126.5658</v>
+      </c>
+      <c r="N13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>553.19399999999996</v>
+      </c>
+      <c r="D14">
+        <v>1135.0415</v>
+      </c>
+      <c r="E14">
+        <v>787.53480000000002</v>
+      </c>
+      <c r="F14">
+        <v>160.13630000000001</v>
+      </c>
+      <c r="G14">
+        <v>344.14350000000002</v>
+      </c>
+      <c r="H14">
+        <v>859.50969999999995</v>
+      </c>
+      <c r="I14">
+        <v>580.63509999999997</v>
+      </c>
+      <c r="J14">
+        <v>147.07550000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="N17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="10"/>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>16444.729800000001</v>
+      </c>
+      <c r="D19">
+        <v>23015905.3532</v>
+      </c>
+      <c r="E19">
+        <v>1365252.9046</v>
+      </c>
+      <c r="F19">
+        <v>5103548.1994000003</v>
+      </c>
+      <c r="G19">
+        <v>41.032899999999998</v>
+      </c>
+      <c r="H19">
+        <v>57.221600000000002</v>
+      </c>
+      <c r="I19" s="30">
+        <v>42.948799999999999</v>
+      </c>
+      <c r="J19">
+        <v>4.4454000000000002</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" s="12">
+        <v>15100</v>
+      </c>
+      <c r="C20">
+        <v>461732.73580000002</v>
+      </c>
+      <c r="D20">
+        <v>25770767.384599999</v>
+      </c>
+      <c r="E20">
+        <v>5392350.2461000001</v>
+      </c>
+      <c r="F20">
+        <v>6227515.7939999998</v>
+      </c>
+      <c r="G20">
+        <v>70.057100000000005</v>
+      </c>
+      <c r="H20">
+        <v>2738.6608999999999</v>
+      </c>
+      <c r="I20">
+        <v>620.61749999999995</v>
+      </c>
+      <c r="J20">
+        <v>622.33130000000006</v>
+      </c>
+      <c r="N20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>128.49209999999999</v>
+      </c>
+      <c r="D21">
+        <v>24996.535500000002</v>
+      </c>
+      <c r="E21">
+        <v>5348.4686000000002</v>
+      </c>
+      <c r="F21">
+        <v>7252.1502</v>
+      </c>
+      <c r="G21">
+        <v>40.840699999999998</v>
+      </c>
+      <c r="H21">
+        <v>193.5188</v>
+      </c>
+      <c r="I21">
+        <v>72.043499999999995</v>
+      </c>
+      <c r="J21">
+        <v>55.352400000000003</v>
+      </c>
+      <c r="N21">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
+      <c r="B24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="B25" s="10"/>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>44.930100000000003</v>
+      </c>
+      <c r="D26">
+        <v>57.298900000000003</v>
+      </c>
+      <c r="E26">
+        <v>45.793500000000002</v>
+      </c>
+      <c r="F26">
+        <v>2.7151999999999998</v>
+      </c>
+      <c r="G26">
+        <v>43.982399999999998</v>
+      </c>
+      <c r="H26">
+        <v>44.038800000000002</v>
+      </c>
+      <c r="I26" s="30">
+        <v>43.999400000000001</v>
+      </c>
+      <c r="J26">
+        <v>1.797E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="B27" s="23">
+        <v>15100</v>
+      </c>
+      <c r="C27">
+        <v>46.1</v>
+      </c>
+      <c r="D27">
+        <v>53.229500000000002</v>
+      </c>
+      <c r="E27">
+        <v>48.7149</v>
+      </c>
+      <c r="F27">
+        <v>2.1313</v>
+      </c>
+      <c r="G27">
+        <v>44.079500000000003</v>
+      </c>
+      <c r="H27">
+        <v>44.500999999999998</v>
+      </c>
+      <c r="I27">
+        <v>44.220500000000001</v>
+      </c>
+      <c r="J27">
+        <v>9.9654000000000006E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>44.249699999999997</v>
+      </c>
+      <c r="D28">
+        <v>45.393799999999999</v>
+      </c>
+      <c r="E28">
+        <v>44.751800000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.28367999999999999</v>
+      </c>
+      <c r="G28">
+        <v>43.982300000000002</v>
+      </c>
+      <c r="H28">
+        <v>44.019199999999998</v>
+      </c>
+      <c r="I28" s="30">
+        <v>43.989100000000001</v>
+      </c>
+      <c r="J28">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" s="10"/>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>67.223699999999994</v>
+      </c>
+      <c r="D33">
+        <v>68.718100000000007</v>
+      </c>
+      <c r="E33">
+        <v>68.422399999999996</v>
+      </c>
+      <c r="F33">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="G33">
+        <v>67.122200000000007</v>
+      </c>
+      <c r="H33">
+        <v>68.764899999999997</v>
+      </c>
+      <c r="I33">
+        <v>68.380499999999998</v>
+      </c>
+      <c r="J33">
+        <v>0.55084999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="23">
+        <v>15100</v>
+      </c>
+      <c r="C34">
+        <v>67.694800000000001</v>
+      </c>
+      <c r="D34">
+        <v>68.510099999999994</v>
+      </c>
+      <c r="E34">
+        <v>68.373699999999999</v>
+      </c>
+      <c r="F34">
+        <v>0.21898000000000001</v>
+      </c>
+      <c r="G34">
+        <v>51.316299999999998</v>
+      </c>
+      <c r="H34">
+        <v>68.549000000000007</v>
+      </c>
+      <c r="I34" s="30">
+        <v>65.968000000000004</v>
+      </c>
+      <c r="J34">
+        <v>5.0453999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>67.124300000000005</v>
+      </c>
+      <c r="D35">
+        <v>67.415199999999999</v>
+      </c>
+      <c r="E35">
+        <v>67.2239</v>
+      </c>
+      <c r="F35">
+        <v>9.3464000000000005E-2</v>
+      </c>
+      <c r="G35">
+        <v>67.123599999999996</v>
+      </c>
+      <c r="H35">
+        <v>67.123900000000006</v>
+      </c>
+      <c r="I35">
+        <v>67.123800000000003</v>
+      </c>
+      <c r="J35" s="17">
+        <v>7.3214999999999996E-5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
+  <mergeCells count="10">
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12">
-        <v>15100</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12">
-        <v>15100</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="12">
-        <v>15100</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>